--- a/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>26.08695652173913</v>
+        <v>282</v>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.354515050167224</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>26.82926829268293</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>35</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>39</v>
       </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.63414634146341</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.878048780487805</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>85.36585365853658</v>
+      </c>
+      <c r="P2" t="n">
+        <v>95.1219512195122</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.8536585365853658</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9210526315789473</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>78.40937782279678</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>58.48286591554138</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>12.63940520446097</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.03717472118959</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>14.8936170212766</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>41</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>44</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.76595744680851</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.382978723404255</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>87.2340425531915</v>
+      </c>
+      <c r="P3" t="n">
+        <v>93.61702127659575</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.9148936170212766</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9555555555555556</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>87.32614304507447</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>75.24792519370241</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>57.14285714285714</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.631578947368421</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>50.72411999957824</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>3.004969387521094e-76</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>49.44649446494465</v>
+        <v>402</v>
       </c>
       <c r="D5" t="n">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.56826568265683</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>54</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
       </c>
       <c r="J5" t="n">
         <v>8</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.77272727272727</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>61.36363636363637</v>
+      </c>
+      <c r="P5" t="n">
+        <v>67.04545454545455</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.625</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>72.17403234466684</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>29.98910032795822</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>78.26086956521739</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76.08695652173914</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>90</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
       </c>
       <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
         <v>52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.208955223880597</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>9.62789157292654</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>0.3044211204295285</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>26.66666666666667</v>
+        <v>280</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
-      </c>
-      <c r="F7" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="G7" t="n">
-        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>47</v>
       </c>
       <c r="I7" t="n">
+        <v>47</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>95.91836734693877</v>
+      </c>
+      <c r="P7" t="n">
+        <v>95.91836734693877</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.9591836734693877</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9791666666666666</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>98.38027695825326</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>85.24455013322705</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>51.98412698412699</v>
+        <v>246</v>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.53968253968254</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>40.625</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27</v>
       </c>
       <c r="H8" t="n">
         <v>27</v>
       </c>
       <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>28.125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28.125</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>84.375</v>
+      </c>
+      <c r="P8" t="n">
+        <v>84.375</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.84375</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.8852459016393442</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>81.37267694798599</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>56.85150418100214</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>363.0712979890311</v>
+        <v>417</v>
       </c>
       <c r="D9" t="n">
-        <v>1986</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
+        <v>1959</v>
+      </c>
+      <c r="F9" t="n">
+        <v>381.9012797074954</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="F9" t="n">
-        <v>368.3544303797469</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>25</v>
       </c>
-      <c r="H9" t="n">
-        <v>29</v>
-      </c>
       <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="n">
         <v>51</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>64.55696202531645</v>
+      </c>
+      <c r="M9" t="n">
+        <v>64.55696202531645</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>31.64556962025317</v>
+      </c>
+      <c r="P9" t="n">
+        <v>31.64556962025317</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.2532051282051282</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.4040920716112532</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>22.17470138060011</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>5.578299633215071</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
@@ -690,16 +690,16 @@
         <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4286</v>
+        <v>0.3878</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -775,10 +775,10 @@
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -790,34 +790,34 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2727</v>
+        <v>0.2273</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1591</v>
+        <v>0.1136</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9</v>
+        <v>0.9048</v>
       </c>
       <c r="O5" t="n">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8182</v>
+        <v>0.8636</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8675</v>
+        <v>0.9157</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8571</v>
+        <v>0.8837</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9114</v>
+        <v>0.9383</v>
       </c>
       <c r="T5" t="n">
         <v>0.7217</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2999</v>
+        <v>0.3368</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -1000,28 +1000,28 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2812</v>
+        <v>0.25</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2812</v>
+        <v>0.25</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8286</v>
+        <v>0.8333</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8286</v>
+        <v>0.8333</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9062</v>
+        <v>0.9375</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9062</v>
+        <v>0.9375</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8657</v>
+        <v>0.8824</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8657</v>
+        <v>0.8824</v>
       </c>
       <c r="T8" t="n">
         <v>0.8137</v>
@@ -1055,10 +1055,10 @@
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6456</v>
+        <v>0.6076</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6456</v>
+        <v>0.6076</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3544</v>
+        <v>0.3924</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3544</v>
+        <v>0.3924</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5234</v>
+        <v>0.5636</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5234</v>
+        <v>0.5636</v>
       </c>
       <c r="T9" t="n">
         <v>0.2217</v>

--- a/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Kosmos/results.xlsx
@@ -547,67 +547,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0635</v>
+        <v>0.0072</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2439</v>
+        <v>0.0513</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0488</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8974</v>
+        <v>0.9744</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8537</v>
+        <v>0.9744</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9459</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.875</v>
+        <v>0.9744</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9722</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7841</v>
+        <v>0.9691</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5848</v>
+        <v>0.705</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1004</v>
+        <v>0.0311</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3878</v>
+        <v>0.4022</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2657</v>
+        <v>0.2821</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" t="n">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7609</v>
+        <v>0.762</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0667</v>
+        <v>0.0317</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3254</v>
+        <v>0.3362</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C9" t="n">
         <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>1959</v>
+        <v>1682</v>
       </c>
       <c r="E9" t="n">
-        <v>3.819</v>
+        <v>3.4913</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
